--- a/ProjectDocuments/FinalDoc/07. Review Feedback/Review Feedback.xlsx
+++ b/ProjectDocuments/FinalDoc/07. Review Feedback/Review Feedback.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>REVIEW FEEDBACK</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Chưa theo chuẩn thống nhất</t>
+  </si>
+  <si>
+    <t>Toàn bộ ứng dụng</t>
+  </si>
+  <si>
+    <t>Do thời gian hạn hẹp, một số nhân tố chủ quan không thể thực hiện một số chức năng như kế hoạch ban đầu dự án, các chức năng chính củ chương trình chỉ đảm bảo ở mức độ chấp nhận được, chưa có chức năng bổ sung cho ứng dụng</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -284,12 +290,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +340,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,44 +409,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,228 +737,228 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="18.75">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="1"/>
@@ -910,11 +971,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:J7"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B2:H5"/>
@@ -931,6 +987,11 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:J7"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="F13:J13"/>
@@ -956,251 +1017,251 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="B2:H5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="F6:J7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1222,251 +1283,251 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="B2:H5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="F6:J7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1478,7 +1539,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1488,239 +1549,243 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="66.75" customHeight="1">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="B2:H5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:E7"/>
     <mergeCell ref="F6:J7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:J8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
